--- a/MSE.xlsx
+++ b/MSE.xlsx
@@ -1,21 +1,131 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeann\OneDrive\Documents\scolaire\ENSAE\3A\S1\macroeconometrics and ML\project\Macroeconometrics-and-Machine-Learning-Project\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{284D5AE4-B21C-4A9E-8A3D-12A900CC0C1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="60" yWindow="15" windowWidth="9825" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="33">
+  <si>
+    <t>adaElNet.rda</t>
+  </si>
+  <si>
+    <t>adaLasso.rda</t>
+  </si>
+  <si>
+    <t>AR.rda</t>
+  </si>
+  <si>
+    <t>Bagging.rda</t>
+  </si>
+  <si>
+    <t>BVar.rda</t>
+  </si>
+  <si>
+    <t>CSR.rda</t>
+  </si>
+  <si>
+    <t>ElNet.rda</t>
+  </si>
+  <si>
+    <t>Factor.rda</t>
+  </si>
+  <si>
+    <t>Lasso.rda</t>
+  </si>
+  <si>
+    <t>RF.rda</t>
+  </si>
+  <si>
+    <t>RFOLS.rda</t>
+  </si>
+  <si>
+    <t>RR.rda</t>
+  </si>
+  <si>
+    <t>T.Factor.rda</t>
+  </si>
+  <si>
+    <t>rwe</t>
+  </si>
+  <si>
+    <t>is_min</t>
+  </si>
+  <si>
+    <t>t+1</t>
+  </si>
+  <si>
+    <t>t+2</t>
+  </si>
+  <si>
+    <t>t+3</t>
+  </si>
+  <si>
+    <t>t+4</t>
+  </si>
+  <si>
+    <t>t+5</t>
+  </si>
+  <si>
+    <t>t+6</t>
+  </si>
+  <si>
+    <t>t+7</t>
+  </si>
+  <si>
+    <t>t+8</t>
+  </si>
+  <si>
+    <t>t+9</t>
+  </si>
+  <si>
+    <t>t+10</t>
+  </si>
+  <si>
+    <t>t+11</t>
+  </si>
+  <si>
+    <t>t+12</t>
+  </si>
+  <si>
+    <t>acc3</t>
+  </si>
+  <si>
+    <t>acc6</t>
+  </si>
+  <si>
+    <t>acc12</t>
+  </si>
+  <si>
+    <t>avg</t>
+  </si>
+  <si>
+    <t>min</t>
+  </si>
+  <si>
+    <t>max</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -31,6 +141,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -40,7 +156,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -48,21 +164,39 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -109,7 +243,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -141,9 +275,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -175,6 +327,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -350,796 +520,969 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:P19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="M9" workbookViewId="0">
+      <selection activeCell="P6" sqref="P6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="14" width="12" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>adaElNet.rda</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>adaLasso.rda</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>AR.rda</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Bagging.rda</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>BVar.rda</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>ElNet.rda</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Factor.rda</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Lasso.rda</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>RR.rda</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>T.Factor.rda</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>rwe</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>is_min</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2">
-        <v>0.8333633706201632</v>
+    <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>15</v>
       </c>
       <c r="B2">
-        <v>0.8247240348421155</v>
+        <v>0.83336337062016319</v>
       </c>
       <c r="C2">
-        <v>0.8813021321256908</v>
+        <v>0.82472403484211554</v>
       </c>
       <c r="D2">
-        <v>0.9648439738619589</v>
+        <v>0.88130213212569075</v>
       </c>
       <c r="E2">
-        <v>0.8986078780595171</v>
+        <v>0.96484397386195886</v>
       </c>
       <c r="F2">
-        <v>0.8031271710464472</v>
+        <v>0.89860787805951714</v>
       </c>
       <c r="G2">
-        <v>0.8396546459492263</v>
+        <v>0.81471454772237484</v>
       </c>
       <c r="H2">
+        <v>0.80312717104644715</v>
+      </c>
+      <c r="I2">
+        <v>0.83965464594922634</v>
+      </c>
+      <c r="J2">
         <v>0.7977915795728463</v>
       </c>
-      <c r="I2">
-        <v>0.8581538906484381</v>
-      </c>
-      <c r="J2">
-        <v>0.8445226726743645</v>
-      </c>
       <c r="K2">
-        <v>1</v>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>Lasso.rda</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3">
-        <v>0.7310413524730461</v>
+        <v>0.83956269929710325</v>
+      </c>
+      <c r="L2">
+        <v>0.78613664444695008</v>
+      </c>
+      <c r="M2">
+        <v>0.85815389064843806</v>
+      </c>
+      <c r="N2">
+        <v>0.84452267267436454</v>
+      </c>
+      <c r="O2">
+        <v>1</v>
+      </c>
+      <c r="P2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>16</v>
       </c>
       <c r="B3">
-        <v>0.740385218628519</v>
+        <v>0.73104135247304614</v>
       </c>
       <c r="C3">
-        <v>0.8021039964085643</v>
+        <v>0.74038521862851903</v>
       </c>
       <c r="D3">
-        <v>0.9099969098104438</v>
+        <v>0.80210399640856433</v>
       </c>
       <c r="E3">
-        <v>0.8053210710834481</v>
+        <v>0.90999690981044379</v>
       </c>
       <c r="F3">
-        <v>0.7370728014976281</v>
+        <v>0.80532107108344808</v>
       </c>
       <c r="G3">
-        <v>0.7593935564806144</v>
+        <v>0.75011373657239255</v>
       </c>
       <c r="H3">
-        <v>0.7368885798634038</v>
+        <v>0.73707280149762811</v>
       </c>
       <c r="I3">
-        <v>0.7950436441103475</v>
+        <v>0.75939355648061435</v>
       </c>
       <c r="J3">
-        <v>0.7640471516604735</v>
+        <v>0.73688857986340384</v>
       </c>
       <c r="K3">
-        <v>1</v>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>adaElNet.rda</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4">
-        <v>0.7314939313112688</v>
+        <v>0.7496959096096899</v>
+      </c>
+      <c r="L3">
+        <v>0.7567857411366965</v>
+      </c>
+      <c r="M3">
+        <v>0.79504364411034745</v>
+      </c>
+      <c r="N3">
+        <v>0.76404715166047354</v>
+      </c>
+      <c r="O3">
+        <v>1</v>
+      </c>
+      <c r="P3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>17</v>
       </c>
       <c r="B4">
-        <v>0.7401562973496005</v>
+        <v>0.73149393131126883</v>
       </c>
       <c r="C4">
-        <v>0.7781947096669041</v>
+        <v>0.74015629734960053</v>
       </c>
       <c r="D4">
-        <v>0.8168703963598274</v>
+        <v>0.77819470966690407</v>
       </c>
       <c r="E4">
-        <v>0.7798597259113523</v>
+        <v>0.81687039635982739</v>
       </c>
       <c r="F4">
-        <v>0.7305206072232056</v>
+        <v>0.77985972591135233</v>
       </c>
       <c r="G4">
+        <v>0.74291986330189708</v>
+      </c>
+      <c r="H4">
+        <v>0.73052060722320555</v>
+      </c>
+      <c r="I4">
         <v>0.7491280645112679</v>
       </c>
-      <c r="H4">
-        <v>0.7278807681950428</v>
-      </c>
-      <c r="I4">
-        <v>0.7683349841934398</v>
-      </c>
       <c r="J4">
-        <v>0.7466909639345515</v>
+        <v>0.72788076819504277</v>
       </c>
       <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>Lasso.rda</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5">
-        <v>0.772364972922606</v>
+        <v>0.72958159426449098</v>
+      </c>
+      <c r="L4">
+        <v>0.73828582561219425</v>
+      </c>
+      <c r="M4">
+        <v>0.76833498419343982</v>
+      </c>
+      <c r="N4">
+        <v>0.74669096393455148</v>
+      </c>
+      <c r="O4">
+        <v>1</v>
+      </c>
+      <c r="P4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>18</v>
       </c>
       <c r="B5">
-        <v>0.7890660297397353</v>
+        <v>0.77236497292260597</v>
       </c>
       <c r="C5">
-        <v>0.7891792255101273</v>
+        <v>0.78906602973973528</v>
       </c>
       <c r="D5">
-        <v>0.8178297824230449</v>
+        <v>0.78917922551012731</v>
       </c>
       <c r="E5">
-        <v>0.7897019838277151</v>
+        <v>0.81782978242304494</v>
       </c>
       <c r="F5">
-        <v>0.7555294458850592</v>
+        <v>0.78970198382771506</v>
       </c>
       <c r="G5">
-        <v>0.7787186450465177</v>
+        <v>0.77506231679943016</v>
       </c>
       <c r="H5">
-        <v>0.7546984800520477</v>
+        <v>0.75552944588505921</v>
       </c>
       <c r="I5">
-        <v>0.7950414849769052</v>
+        <v>0.77871864504651767</v>
       </c>
       <c r="J5">
+        <v>0.75469848005204765</v>
+      </c>
+      <c r="K5">
+        <v>0.75506697943676704</v>
+      </c>
+      <c r="L5">
+        <v>0.77793725933685987</v>
+      </c>
+      <c r="M5">
+        <v>0.79504148497690519</v>
+      </c>
+      <c r="N5">
         <v>0.7715467528437675</v>
       </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>Lasso.rda</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6">
-        <v>0.754948894269855</v>
+      <c r="O5">
+        <v>1</v>
+      </c>
+      <c r="P5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>19</v>
       </c>
       <c r="B6">
-        <v>0.7562959437372042</v>
+        <v>0.75494889426985501</v>
       </c>
       <c r="C6">
-        <v>0.7696550018884683</v>
+        <v>0.75629594373720421</v>
       </c>
       <c r="D6">
-        <v>0.8484624951947775</v>
+        <v>0.76965500188846825</v>
       </c>
       <c r="E6">
-        <v>0.7689842421242376</v>
+        <v>0.84846249519477746</v>
       </c>
       <c r="F6">
-        <v>0.7415348910970649</v>
+        <v>0.76898424212423755</v>
       </c>
       <c r="G6">
-        <v>0.7543030933002238</v>
+        <v>0.76126014722196933</v>
       </c>
       <c r="H6">
-        <v>0.7434756828165361</v>
+        <v>0.74153489109706494</v>
       </c>
       <c r="I6">
-        <v>0.7659926144088133</v>
+        <v>0.75430309330022383</v>
       </c>
       <c r="J6">
-        <v>0.7458925762330139</v>
+        <v>0.74347568281653609</v>
       </c>
       <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>ElNet.rda</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7">
-        <v>0.7662434725550074</v>
+        <v>0.72823522810327246</v>
+      </c>
+      <c r="L6">
+        <v>0.75100261286169856</v>
+      </c>
+      <c r="M6">
+        <v>0.76599261440881328</v>
+      </c>
+      <c r="N6">
+        <v>0.74589257623301386</v>
+      </c>
+      <c r="O6">
+        <v>1</v>
+      </c>
+      <c r="P6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>20</v>
       </c>
       <c r="B7">
-        <v>0.7694322866461878</v>
+        <v>0.76624347255500735</v>
       </c>
       <c r="C7">
-        <v>0.7684767662642336</v>
+        <v>0.76943228664618779</v>
       </c>
       <c r="D7">
+        <v>0.76847676626423356</v>
+      </c>
+      <c r="E7">
         <v>1.008303144801467</v>
       </c>
-      <c r="E7">
-        <v>0.7675379290829522</v>
-      </c>
       <c r="F7">
-        <v>0.7465223502645215</v>
+        <v>0.76753792908295215</v>
       </c>
       <c r="G7">
-        <v>0.7632630832269662</v>
+        <v>0.76689691230999724</v>
       </c>
       <c r="H7">
-        <v>0.7437368183655708</v>
+        <v>0.74652235026452152</v>
       </c>
       <c r="I7">
-        <v>0.7953000373064968</v>
+        <v>0.76326308322696623</v>
       </c>
       <c r="J7">
-        <v>0.7669835080015641</v>
+        <v>0.74373681836557082</v>
       </c>
       <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>Lasso.rda</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8">
-        <v>0.7616591325375671</v>
+        <v>0.74080865462684298</v>
+      </c>
+      <c r="L7">
+        <v>0.77198239221268417</v>
+      </c>
+      <c r="M7">
+        <v>0.79530003730649679</v>
+      </c>
+      <c r="N7">
+        <v>0.76698350800156412</v>
+      </c>
+      <c r="O7">
+        <v>1</v>
+      </c>
+      <c r="P7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>21</v>
       </c>
       <c r="B8">
-        <v>0.7636307388552018</v>
+        <v>0.76165913253756712</v>
       </c>
       <c r="C8">
-        <v>0.7572143749275562</v>
+        <v>0.76363073885520183</v>
       </c>
       <c r="D8">
-        <v>0.9410689528220029</v>
+        <v>0.75721437492755617</v>
       </c>
       <c r="E8">
-        <v>0.7584186108845833</v>
+        <v>0.94106895282200287</v>
       </c>
       <c r="F8">
-        <v>0.7506442157638635</v>
+        <v>0.75841861088458329</v>
       </c>
       <c r="G8">
-        <v>0.7663405914979631</v>
+        <v>0.76462017176691566</v>
       </c>
       <c r="H8">
+        <v>0.75064421576386353</v>
+      </c>
+      <c r="I8">
+        <v>0.76634059149796308</v>
+      </c>
+      <c r="J8">
         <v>0.7475070543947292</v>
       </c>
-      <c r="I8">
-        <v>0.7875410981442134</v>
-      </c>
-      <c r="J8">
-        <v>0.7734489416377981</v>
-      </c>
       <c r="K8">
-        <v>1</v>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>Lasso.rda</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9">
-        <v>0.7722220163460569</v>
+        <v>0.75104277866128932</v>
+      </c>
+      <c r="L8">
+        <v>0.77196413522602647</v>
+      </c>
+      <c r="M8">
+        <v>0.78754109814421336</v>
+      </c>
+      <c r="N8">
+        <v>0.77344894163779809</v>
+      </c>
+      <c r="O8">
+        <v>1</v>
+      </c>
+      <c r="P8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>22</v>
       </c>
       <c r="B9">
+        <v>0.77222201634605692</v>
+      </c>
+      <c r="C9">
         <v>0.7712422742167292</v>
       </c>
-      <c r="C9">
-        <v>0.7423635935128635</v>
-      </c>
       <c r="D9">
-        <v>1.115402807444228</v>
+        <v>0.74236359351286352</v>
       </c>
       <c r="E9">
+        <v>1.1154028074442279</v>
+      </c>
+      <c r="F9">
         <v>0.7461020760686895</v>
       </c>
-      <c r="F9">
-        <v>0.733546215926568</v>
-      </c>
       <c r="G9">
-        <v>0.7586284700466238</v>
+        <v>0.76061036161226792</v>
       </c>
       <c r="H9">
-        <v>0.7367356951025397</v>
+        <v>0.73354621592656799</v>
       </c>
       <c r="I9">
+        <v>0.75862847004662382</v>
+      </c>
+      <c r="J9">
+        <v>0.73673569510253967</v>
+      </c>
+      <c r="K9">
+        <v>0.73576361872227614</v>
+      </c>
+      <c r="L9">
+        <v>0.75787261155454155</v>
+      </c>
+      <c r="M9">
         <v>0.7950764501299542</v>
       </c>
-      <c r="J9">
-        <v>0.7517826686124846</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>ElNet.rda</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10">
-        <v>0.777268958901583</v>
+      <c r="N9">
+        <v>0.75178266861248455</v>
+      </c>
+      <c r="O9">
+        <v>1</v>
+      </c>
+      <c r="P9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>23</v>
       </c>
       <c r="B10">
-        <v>0.7782892243479019</v>
+        <v>0.77726895890158298</v>
       </c>
       <c r="C10">
-        <v>0.7549165541649726</v>
+        <v>0.77828922434790193</v>
       </c>
       <c r="D10">
-        <v>0.8659567593077668</v>
+        <v>0.75491655416497261</v>
       </c>
       <c r="E10">
-        <v>0.7562070342521052</v>
+        <v>0.86595675930776683</v>
       </c>
       <c r="F10">
-        <v>0.7464189353196715</v>
+        <v>0.75620703425210523</v>
       </c>
       <c r="G10">
-        <v>0.773219462624106</v>
+        <v>0.76701752412586455</v>
       </c>
       <c r="H10">
-        <v>0.7462504759110635</v>
+        <v>0.74641893531967152</v>
       </c>
       <c r="I10">
+        <v>0.77321946262410601</v>
+      </c>
+      <c r="J10">
+        <v>0.74625047591106353</v>
+      </c>
+      <c r="K10">
+        <v>0.73976133373158182</v>
+      </c>
+      <c r="L10">
+        <v>0.76291818883781926</v>
+      </c>
+      <c r="M10">
         <v>0.7923082980313082</v>
       </c>
-      <c r="J10">
-        <v>0.7741295846510761</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>Lasso.rda</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11">
-        <v>0.8616614718003601</v>
+      <c r="N10">
+        <v>0.77412958465107606</v>
+      </c>
+      <c r="O10">
+        <v>1</v>
+      </c>
+      <c r="P10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>24</v>
       </c>
       <c r="B11">
-        <v>0.8549084447075559</v>
+        <v>0.86166147180036012</v>
       </c>
       <c r="C11">
-        <v>0.805138428792977</v>
+        <v>0.85490844470755589</v>
       </c>
       <c r="D11">
-        <v>1.156875527525412</v>
+        <v>0.80513842879297703</v>
       </c>
       <c r="E11">
-        <v>0.7956866506078475</v>
+        <v>1.1568755275254119</v>
       </c>
       <c r="F11">
-        <v>0.8027708014028063</v>
+        <v>0.79568665060784749</v>
       </c>
       <c r="G11">
+        <v>0.807221652827527</v>
+      </c>
+      <c r="H11">
+        <v>0.80277080140280632</v>
+      </c>
+      <c r="I11">
         <v>0.8038658318761277</v>
       </c>
-      <c r="H11">
-        <v>0.8019766339199865</v>
-      </c>
-      <c r="I11">
-        <v>0.8531397841629377</v>
-      </c>
       <c r="J11">
-        <v>0.7837213058718553</v>
+        <v>0.80197663391998653</v>
       </c>
       <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>T.Factor.rda</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12">
+        <v>0.7761320038134174</v>
+      </c>
+      <c r="L11">
+        <v>0.80135723072614096</v>
+      </c>
+      <c r="M11">
+        <v>0.85313978416293768</v>
+      </c>
+      <c r="N11">
+        <v>0.78372130587185529</v>
+      </c>
+      <c r="O11">
+        <v>1</v>
+      </c>
+      <c r="P11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12">
         <v>0.8432047338890738</v>
       </c>
-      <c r="B12">
+      <c r="C12">
         <v>0.8405878667403881</v>
       </c>
-      <c r="C12">
-        <v>0.8143322767414863</v>
-      </c>
       <c r="D12">
-        <v>1.356968385106926</v>
+        <v>0.81433227674148634</v>
       </c>
       <c r="E12">
-        <v>0.8225172832368076</v>
+        <v>1.3569683851069261</v>
       </c>
       <c r="F12">
-        <v>0.8089455703523534</v>
+        <v>0.82251728323680762</v>
       </c>
       <c r="G12">
-        <v>0.8071337564756654</v>
+        <v>0.81506933397450287</v>
       </c>
       <c r="H12">
-        <v>0.8110084204494223</v>
+        <v>0.80894557035235337</v>
       </c>
       <c r="I12">
+        <v>0.80713375647566543</v>
+      </c>
+      <c r="J12">
+        <v>0.81100842044942234</v>
+      </c>
+      <c r="K12">
+        <v>0.79905916682268519</v>
+      </c>
+      <c r="L12">
+        <v>0.80515070269758593</v>
+      </c>
+      <c r="M12">
         <v>0.8428440319251308</v>
       </c>
-      <c r="J12">
+      <c r="N12">
         <v>0.8108845454840522</v>
       </c>
-      <c r="K12">
-        <v>1</v>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>Factor.rda</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13">
-        <v>0.7600246722532716</v>
+      <c r="O12">
+        <v>1</v>
+      </c>
+      <c r="P12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>26</v>
       </c>
       <c r="B13">
-        <v>0.7628876753287133</v>
+        <v>0.76002467225327164</v>
       </c>
       <c r="C13">
-        <v>0.7371520593037811</v>
+        <v>0.76288767532871327</v>
       </c>
       <c r="D13">
+        <v>0.73715205930378114</v>
+      </c>
+      <c r="E13">
         <v>1.260038977278781</v>
       </c>
-      <c r="E13">
-        <v>0.7445171520288897</v>
-      </c>
       <c r="F13">
-        <v>0.7211769447396841</v>
+        <v>0.74451715202888968</v>
       </c>
       <c r="G13">
-        <v>0.7489662939415545</v>
+        <v>0.73534654059303128</v>
       </c>
       <c r="H13">
-        <v>0.7248163719574353</v>
+        <v>0.72117694473968408</v>
       </c>
       <c r="I13">
+        <v>0.74896629394155445</v>
+      </c>
+      <c r="J13">
+        <v>0.72481637195743531</v>
+      </c>
+      <c r="K13">
+        <v>0.72052686322565995</v>
+      </c>
+      <c r="L13">
+        <v>0.70781527204776862</v>
+      </c>
+      <c r="M13">
         <v>0.7388089092389184</v>
       </c>
-      <c r="J13">
-        <v>0.7552587064641981</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>ElNet.rda</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14">
-        <v>0.6520117236333881</v>
+      <c r="N13">
+        <v>0.75525870646419813</v>
+      </c>
+      <c r="O13">
+        <v>1</v>
+      </c>
+      <c r="P13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>27</v>
       </c>
       <c r="B14">
-        <v>0.6414140015130324</v>
+        <v>0.65201172363338811</v>
       </c>
       <c r="C14">
-        <v>0.6372625547043929</v>
+        <v>0.64141400151303241</v>
       </c>
       <c r="D14">
+        <v>0.63726255470439286</v>
+      </c>
+      <c r="E14">
         <v>0.9438179715279672</v>
       </c>
-      <c r="E14">
-        <v>0.6315094998906441</v>
-      </c>
       <c r="F14">
-        <v>0.623770059864407</v>
+        <v>0.63150949989064409</v>
       </c>
       <c r="G14">
-        <v>0.5758902262181871</v>
+        <v>0.65028653120810387</v>
       </c>
       <c r="H14">
-        <v>0.6150300369034519</v>
+        <v>0.62377005986440703</v>
       </c>
       <c r="I14">
-        <v>0.7258267018788288</v>
+        <v>0.57589022621818708</v>
       </c>
       <c r="J14">
+        <v>0.61503003690345193</v>
+      </c>
+      <c r="K14">
+        <v>0.65789380973597211</v>
+      </c>
+      <c r="L14">
+        <v>0.64373065475893121</v>
+      </c>
+      <c r="M14">
+        <v>0.72582670187882881</v>
+      </c>
+      <c r="N14">
         <v>0.5888789855568719</v>
       </c>
-      <c r="K14">
-        <v>1</v>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>Factor.rda</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15">
-        <v>0.8149855532268199</v>
+      <c r="O14">
+        <v>1</v>
+      </c>
+      <c r="P14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>28</v>
       </c>
       <c r="B15">
-        <v>0.8182493735846957</v>
+        <v>0.81498555322681987</v>
       </c>
       <c r="C15">
-        <v>0.6627833256796344</v>
+        <v>0.81824937358469574</v>
       </c>
       <c r="D15">
+        <v>0.66278332567963438</v>
+      </c>
+      <c r="E15">
         <v>1.217215728570302</v>
       </c>
-      <c r="E15">
-        <v>0.6736636191174039</v>
-      </c>
       <c r="F15">
-        <v>0.7437170532422746</v>
+        <v>0.67366361911740391</v>
       </c>
       <c r="G15">
-        <v>0.6769114319260398</v>
+        <v>0.73983228613282692</v>
       </c>
       <c r="H15">
-        <v>0.7255518833109179</v>
+        <v>0.74371705324227455</v>
       </c>
       <c r="I15">
-        <v>0.8206674450961408</v>
+        <v>0.67691143192603975</v>
       </c>
       <c r="J15">
+        <v>0.72555188331091791</v>
+      </c>
+      <c r="K15">
+        <v>0.72999141515458699</v>
+      </c>
+      <c r="L15">
+        <v>0.7691250634943867</v>
+      </c>
+      <c r="M15">
+        <v>0.82066744509614076</v>
+      </c>
+      <c r="N15">
         <v>0.6822407124181451</v>
       </c>
-      <c r="K15">
-        <v>1</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>AR.rda</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16">
-        <v>0.883482200690751</v>
-      </c>
-      <c r="B16">
-        <v>0.8798835198642164</v>
-      </c>
-      <c r="C16">
-        <v>0.5647396893661775</v>
-      </c>
-      <c r="D16">
+      <c r="O15">
+        <v>1</v>
+      </c>
+      <c r="P15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="2">
+        <v>0.88348220069075101</v>
+      </c>
+      <c r="C16" s="2">
+        <v>0.87988351986421642</v>
+      </c>
+      <c r="D16" s="2">
+        <v>0.56473968936617747</v>
+      </c>
+      <c r="E16" s="2">
         <v>1.504811998786072</v>
       </c>
-      <c r="E16">
-        <v>0.5742516695691405</v>
-      </c>
-      <c r="F16">
-        <v>0.7670834120321239</v>
-      </c>
-      <c r="G16">
+      <c r="F16" s="2">
+        <v>0.57425166956914053</v>
+      </c>
+      <c r="G16" s="2">
+        <v>0.7495197838765848</v>
+      </c>
+      <c r="H16" s="2">
+        <v>0.76708341203212393</v>
+      </c>
+      <c r="I16" s="2">
         <v>0.7406067162283605</v>
       </c>
-      <c r="H16">
-        <v>0.7557277375807475</v>
-      </c>
-      <c r="I16">
+      <c r="J16" s="2">
+        <v>0.75572773758074752</v>
+      </c>
+      <c r="K16" s="2">
+        <v>0.6748198205776309</v>
+      </c>
+      <c r="L16" s="2">
+        <v>0.78156683010189876</v>
+      </c>
+      <c r="M16" s="2">
         <v>0.7835115627566116</v>
       </c>
-      <c r="J16">
-        <v>0.6258877897295241</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>AR.rda</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17">
-        <v>0.853156465290954</v>
+      <c r="N16" s="2">
+        <v>0.62588778972952408</v>
+      </c>
+      <c r="O16" s="2">
+        <v>1</v>
+      </c>
+      <c r="P16" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>30</v>
       </c>
       <c r="B17">
-        <v>0.850837903843315</v>
+        <v>0.85315646529095401</v>
       </c>
       <c r="C17">
-        <v>0.6089599881193655</v>
+        <v>0.85083790384331504</v>
       </c>
       <c r="D17">
+        <v>0.60895998811936547</v>
+      </c>
+      <c r="E17">
         <v>1.383055016273951</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>0.6169867740282593</v>
       </c>
-      <c r="F17">
-        <v>0.7580325860956166</v>
-      </c>
       <c r="G17">
-        <v>0.7340779944359245</v>
+        <v>0.74828418508648564</v>
       </c>
       <c r="H17">
-        <v>0.7478482956451427</v>
+        <v>0.75803258609561663</v>
       </c>
       <c r="I17">
-        <v>0.7868022490861695</v>
+        <v>0.73407799443592447</v>
       </c>
       <c r="J17">
+        <v>0.74784829564514266</v>
+      </c>
+      <c r="K17">
+        <v>0.69105833195697919</v>
+      </c>
+      <c r="L17">
+        <v>0.77296970344994209</v>
+      </c>
+      <c r="M17">
+        <v>0.78680224908616947</v>
+      </c>
+      <c r="N17">
         <v>0.6518799109326191</v>
       </c>
-      <c r="K17">
-        <v>1</v>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>AR.rda</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18">
-        <v>0.883482200690751</v>
+      <c r="O17">
+        <v>1</v>
+      </c>
+      <c r="P17" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>32</v>
       </c>
       <c r="B18">
-        <v>0.8798835198642164</v>
+        <v>0.88348220069075101</v>
       </c>
       <c r="C18">
-        <v>0.8813021321256908</v>
+        <v>0.87988351986421642</v>
       </c>
       <c r="D18">
+        <v>0.88130213212569075</v>
+      </c>
+      <c r="E18">
         <v>1.504811998786072</v>
       </c>
-      <c r="E18">
-        <v>0.8986078780595171</v>
-      </c>
       <c r="F18">
-        <v>0.8089455703523534</v>
+        <v>0.89860787805951714</v>
       </c>
       <c r="G18">
-        <v>0.8396546459492263</v>
+        <v>0.81506933397450287</v>
       </c>
       <c r="H18">
-        <v>0.8110084204494223</v>
+        <v>0.80894557035235337</v>
       </c>
       <c r="I18">
-        <v>0.8581538906484381</v>
+        <v>0.83965464594922634</v>
       </c>
       <c r="J18">
-        <v>0.8445226726743645</v>
+        <v>0.81100842044942234</v>
       </c>
       <c r="K18">
-        <v>1</v>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>ElNet.rda</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19">
-        <v>0.6520117236333881</v>
+        <v>0.83956269929710325</v>
+      </c>
+      <c r="L18">
+        <v>0.80515070269758593</v>
+      </c>
+      <c r="M18">
+        <v>0.85815389064843806</v>
+      </c>
+      <c r="N18">
+        <v>0.84452267267436454</v>
+      </c>
+      <c r="O18">
+        <v>1</v>
+      </c>
+      <c r="P18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>31</v>
       </c>
       <c r="B19">
-        <v>0.6414140015130324</v>
+        <v>0.652011723633388</v>
       </c>
       <c r="C19">
-        <v>0.5647396893661775</v>
+        <v>0.64141400151303241</v>
       </c>
       <c r="D19">
-        <v>0.8168703963598274</v>
+        <v>0.56473968936617747</v>
       </c>
       <c r="E19">
-        <v>0.5742516695691405</v>
+        <v>0.81687039635982739</v>
       </c>
       <c r="F19">
-        <v>0.623770059864407</v>
+        <v>0.57425166956914053</v>
       </c>
       <c r="G19">
-        <v>0.5758902262181871</v>
+        <v>0.65028653120810387</v>
       </c>
       <c r="H19">
-        <v>0.6150300369034519</v>
+        <v>0.62377005986440703</v>
       </c>
       <c r="I19">
-        <v>0.7258267018788288</v>
+        <v>0.57589022621818708</v>
       </c>
       <c r="J19">
+        <v>0.61503003690345193</v>
+      </c>
+      <c r="K19">
+        <v>0.65789380973597211</v>
+      </c>
+      <c r="L19">
+        <v>0.64373065475893121</v>
+      </c>
+      <c r="M19">
+        <v>0.72582670187882881</v>
+      </c>
+      <c r="N19">
         <v>0.5888789855568719</v>
       </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>AR.rda</t>
-        </is>
+      <c r="O19">
+        <v>1</v>
+      </c>
+      <c r="P19" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>